--- a/docs/_downloads/08f25862a0dd85eb493ab84edb004a0e/ModelZoo_VAI3.0_Github.xlsx
+++ b/docs/_downloads/08f25862a0dd85eb493ab84edb004a0e/ModelZoo_VAI3.0_Github.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\HTML_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\vitis-ai-staging\docsrc\source\docs\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86391E9F-D6E6-4923-8F78-3ED6B6466443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7D2E7E-F63A-4715-A4D6-0BAF1220EC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{FDEDB1A0-B1D7-4FF6-B821-F3B34B308466}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDEDB1A0-B1D7-4FF6-B821-F3B34B308466}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelZoo_VAI3.0_Github" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ModelZoo_VAI3.0_Github!$A$3:$O$185</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <webPublishObjects count="1">
+    <webPublishObject id="11947" divId="ModelZoo_VAI3.0_Github_11947" destinationFile="C:\Temp\vitis-ai-staging\docsrc\source\docs\reference\ModelZoo_VAI3.0_Github_web.mht" autoRepublish="1"/>
+  </webPublishObjects>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4777" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4778" uniqueCount="711">
   <si>
     <t>ZCU102</t>
   </si>
@@ -2154,9 +2157,6 @@
     <t>pt_person-orientation_224_112_558M</t>
   </si>
   <si>
-    <t xml:space="preserve">Custom ResNet </t>
-  </si>
-  <si>
     <t>224*112*3</t>
   </si>
   <si>
@@ -2221,13 +2221,50 @@
   </si>
   <si>
     <t>mAP:0.866 Rank1:0.951</t>
+  </si>
+  <si>
+    <t>Custom ResNet</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vitis AI Model Zoo Details &amp; Performance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Copyright 2022 Advanced Micro Devices, Inc.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2257,6 +2294,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2272,7 +2324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2343,12 +2395,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2447,6 +2508,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2792,7 +2857,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2814,69 +2879,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="39" t="s">
+      <c r="Q1" s="40"/>
+      <c r="R1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="38"/>
-      <c r="T1" s="34" t="s">
+      <c r="S1" s="40"/>
+      <c r="T1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="39" t="s">
+      <c r="U1" s="40"/>
+      <c r="V1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="38"/>
-      <c r="X1" s="34" t="s">
+      <c r="W1" s="40"/>
+      <c r="X1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="34" t="s">
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AC1" s="38"/>
+      <c r="AC1" s="40"/>
       <c r="AD1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" s="34" t="s">
+      <c r="AE1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="34" t="s">
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="34" t="s">
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="38"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="P2" s="39" t="s">
+      <c r="A2" s="34" t="s">
+        <v>710</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="P2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="39" t="s">
+      <c r="Q2" s="40"/>
+      <c r="R2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="38"/>
-      <c r="T2" s="39" t="s">
+      <c r="S2" s="40"/>
+      <c r="T2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="39" t="s">
+      <c r="U2" s="40"/>
+      <c r="V2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="38"/>
+      <c r="W2" s="40"/>
       <c r="X2" s="6" t="s">
         <v>13</v>
       </c>
@@ -2898,24 +2979,24 @@
       <c r="AD2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AE2" s="39" t="s">
+      <c r="AE2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="39" t="s">
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="39" t="s">
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="39" t="s">
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="38"/>
     </row>
     <row r="3" spans="1:40" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
@@ -23512,7 +23593,7 @@
         <v>686</v>
       </c>
       <c r="F179" s="12" t="s">
-        <v>687</v>
+        <v>709</v>
       </c>
       <c r="G179" s="24" t="s">
         <v>64</v>
@@ -23524,7 +23605,7 @@
         <v>128</v>
       </c>
       <c r="J179" s="17" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K179" s="17">
         <v>0.93</v>
@@ -23627,28 +23708,28 @@
         <v>71</v>
       </c>
       <c r="E180" s="20" t="s">
+        <v>688</v>
+      </c>
+      <c r="F180" s="12" t="s">
         <v>689</v>
-      </c>
-      <c r="F180" s="12" t="s">
-        <v>690</v>
       </c>
       <c r="G180" s="20" t="s">
         <v>128</v>
       </c>
       <c r="H180" s="18" t="s">
+        <v>690</v>
+      </c>
+      <c r="I180" s="16" t="s">
         <v>691</v>
       </c>
-      <c r="I180" s="16" t="s">
+      <c r="J180" s="17" t="s">
         <v>692</v>
       </c>
-      <c r="J180" s="17" t="s">
+      <c r="K180" s="17" t="s">
         <v>693</v>
       </c>
-      <c r="K180" s="17" t="s">
+      <c r="L180" s="17" t="s">
         <v>694</v>
-      </c>
-      <c r="L180" s="17" t="s">
-        <v>695</v>
       </c>
       <c r="M180" s="11">
         <v>1.1000000000000001</v>
@@ -23745,28 +23826,28 @@
         <v>71</v>
       </c>
       <c r="E181" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="F181" s="12" t="s">
         <v>696</v>
-      </c>
-      <c r="F181" s="12" t="s">
-        <v>697</v>
       </c>
       <c r="G181" s="20" t="s">
         <v>128</v>
       </c>
       <c r="H181" s="18" t="s">
+        <v>690</v>
+      </c>
+      <c r="I181" s="16" t="s">
         <v>691</v>
       </c>
-      <c r="I181" s="16" t="s">
-        <v>692</v>
-      </c>
       <c r="J181" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="K181" s="17" t="s">
         <v>698</v>
       </c>
-      <c r="K181" s="17" t="s">
-        <v>699</v>
-      </c>
       <c r="L181" s="17" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="M181" s="11">
         <v>3.3</v>
@@ -23865,28 +23946,28 @@
         <v>71</v>
       </c>
       <c r="E182" s="20" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F182" s="12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G182" s="20" t="s">
         <v>128</v>
       </c>
       <c r="H182" s="18" t="s">
+        <v>690</v>
+      </c>
+      <c r="I182" s="16" t="s">
         <v>691</v>
       </c>
-      <c r="I182" s="16" t="s">
-        <v>692</v>
-      </c>
       <c r="J182" s="17" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K182" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L182" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="M182" s="11">
         <v>2.7</v>
@@ -23985,28 +24066,28 @@
         <v>71</v>
       </c>
       <c r="E183" s="20" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F183" s="12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G183" s="20" t="s">
         <v>128</v>
       </c>
       <c r="H183" s="18" t="s">
+        <v>690</v>
+      </c>
+      <c r="I183" s="16" t="s">
         <v>691</v>
       </c>
-      <c r="I183" s="16" t="s">
-        <v>692</v>
-      </c>
       <c r="J183" s="17" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K183" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="L183" s="17" t="s">
         <v>703</v>
-      </c>
-      <c r="L183" s="17" t="s">
-        <v>704</v>
       </c>
       <c r="M183" s="11">
         <v>2.1</v>
@@ -24105,28 +24186,28 @@
         <v>71</v>
       </c>
       <c r="E184" s="20" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F184" s="12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G184" s="20" t="s">
         <v>128</v>
       </c>
       <c r="H184" s="18" t="s">
+        <v>690</v>
+      </c>
+      <c r="I184" s="16" t="s">
         <v>691</v>
       </c>
-      <c r="I184" s="16" t="s">
-        <v>692</v>
-      </c>
       <c r="J184" s="17" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K184" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="L184" s="17" t="s">
         <v>706</v>
-      </c>
-      <c r="L184" s="17" t="s">
-        <v>707</v>
       </c>
       <c r="M184" s="11">
         <v>1.6</v>
@@ -24225,28 +24306,28 @@
         <v>71</v>
       </c>
       <c r="E185" s="20" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F185" s="12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G185" s="20" t="s">
         <v>128</v>
       </c>
       <c r="H185" s="18" t="s">
+        <v>690</v>
+      </c>
+      <c r="I185" s="16" t="s">
         <v>691</v>
       </c>
-      <c r="I185" s="16" t="s">
-        <v>692</v>
-      </c>
       <c r="J185" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="K185" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="L185" s="17" t="s">
         <v>698</v>
-      </c>
-      <c r="K185" s="17" t="s">
-        <v>709</v>
-      </c>
-      <c r="L185" s="17" t="s">
-        <v>699</v>
       </c>
       <c r="M185" s="11">
         <v>5.3</v>
@@ -24700,7 +24781,16 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AN307">
     <sortCondition ref="A4:A307"/>
   </sortState>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="V2:W2"/>
@@ -24710,14 +24800,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="R1:S1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -24987,7 +25069,7 @@
 &amp;"Arial,Regular"&amp;10© Copyright 2022 AMD</oddFooter>
   </headerFooter>
   <webPublishItems count="1">
-    <webPublishItem id="14811" divId="ModelZoo_VAI3.0_Github_14811" sourceType="sheet" destinationFile="C:\Temp\HTML_test\ModelZoo_VAI3.0_Github.mht" title="Vitis_AI_Model_Zoo_Details_&amp;_Performance" autoRepublish="1"/>
+    <webPublishItem id="27188" divId="ModelZoo_VAI3.0_Github_27188" sourceType="sheet" destinationFile="C:\Temp\vitis-ai-staging\docsrc\source\docs\reference\ModelZoo_VAI3.0_Github_web.mht" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>
@@ -25266,16 +25348,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7132B4B-6BDC-47A9-AF0C-0341A70E6725}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e1d46fbb-7d1a-4672-bfd6-63f33723acfe"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5abdcbab-ff3d-4b55-bc16-63963a6146d3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="5abdcbab-ff3d-4b55-bc16-63963a6146d3"/>
-    <ds:schemaRef ds:uri="e1d46fbb-7d1a-4672-bfd6-63f33723acfe"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/_downloads/08f25862a0dd85eb493ab84edb004a0e/ModelZoo_VAI3.0_Github.xlsx
+++ b/docs/_downloads/08f25862a0dd85eb493ab84edb004a0e/ModelZoo_VAI3.0_Github.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\vitis-ai-staging\docsrc\source\docs\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57336888-3866-4127-BC12-CA761187764E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCC82F8-620C-4988-873B-0A87C5611F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{FDEDB1A0-B1D7-4FF6-B821-F3B34B308466}"/>
   </bookViews>
@@ -871,9 +871,6 @@
   </si>
   <si>
     <t>EDD2020</t>
-  </si>
-  <si>
-    <t>https://github.com/nizamphoenix/EDD2020</t>
   </si>
   <si>
     <t>tf_RefineDet-Medical_EDD_320_320_0.75_20.54G</t>
@@ -1584,6 +1581,9 @@
   </si>
   <si>
     <t>License Restriction(s)</t>
+  </si>
+  <si>
+    <t>https://ieee-dataport.org/competitions/endoscopy-disease-detection-and-segmentation-edd2020#files</t>
   </si>
 </sst>
 </file>
@@ -1854,42 +1854,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1912,11 +1876,47 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2236,10 +2236,10 @@
   <dimension ref="A1:AL255"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="J137" sqref="J137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2277,109 +2277,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="Q1" s="63" t="s">
+      <c r="Q1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="58"/>
-      <c r="S1" s="54" t="s">
+      <c r="R1" s="46"/>
+      <c r="S1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="55"/>
-      <c r="U1" s="54" t="s">
+      <c r="T1" s="43"/>
+      <c r="U1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="55"/>
-      <c r="W1" s="62" t="s">
+      <c r="V1" s="43"/>
+      <c r="W1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="56" t="s">
+      <c r="X1" s="43"/>
+      <c r="Y1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="42" t="s">
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="42" t="s">
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="42" t="s">
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="49"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="60"/>
     </row>
     <row r="2" spans="1:38" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="59" t="s">
-        <v>455</v>
-      </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="Q2" s="44" t="s">
-        <v>481</v>
+      <c r="A2" s="47" t="s">
+        <v>454</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="Q2" s="51" t="s">
+        <v>480</v>
       </c>
       <c r="R2" s="50"/>
-      <c r="S2" s="61" t="s">
-        <v>480</v>
+      <c r="S2" s="49" t="s">
+        <v>479</v>
       </c>
       <c r="T2" s="50"/>
-      <c r="U2" s="44" t="s">
+      <c r="U2" s="51" t="s">
         <v>7</v>
       </c>
       <c r="V2" s="50"/>
-      <c r="W2" s="44" t="s">
+      <c r="W2" s="51" t="s">
         <v>8</v>
       </c>
       <c r="X2" s="50"/>
       <c r="Y2" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z2" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="Z2" s="41" t="s">
-        <v>479</v>
-      </c>
       <c r="AA2" s="41" t="s">
+        <v>481</v>
+      </c>
+      <c r="AB2" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="AB2" s="41" t="s">
-        <v>483</v>
-      </c>
-      <c r="AC2" s="44" t="s">
+      <c r="AC2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="44" t="s">
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="AF2" s="53"/>
+      <c r="AF2" s="63"/>
       <c r="AG2" s="50"/>
-      <c r="AH2" s="44" t="s">
+      <c r="AH2" s="51" t="s">
         <v>11</v>
       </c>
       <c r="AI2" s="50"/>
-      <c r="AJ2" s="44" t="s">
+      <c r="AJ2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="52"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="62"/>
     </row>
     <row r="3" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
@@ -2398,7 +2398,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>18</v>
@@ -2431,103 +2431,103 @@
         <v>27</v>
       </c>
       <c r="Q3" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="T3" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="U3" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="V3" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="W3" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="X3" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="AC3" s="34" t="s">
         <v>475</v>
       </c>
-      <c r="S3" s="36" t="s">
+      <c r="AD3" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="T3" s="36" t="s">
+      <c r="AE3" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="AH3" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="U3" s="36" t="s">
+      <c r="AI3" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="V3" s="36" t="s">
-        <v>475</v>
-      </c>
-      <c r="W3" s="36" t="s">
+      <c r="AJ3" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AL3" s="6" t="s">
         <v>474</v>
-      </c>
-      <c r="X3" s="36" t="s">
-        <v>475</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="AC3" s="34" t="s">
-        <v>476</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="AK3" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>267</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="H4" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="I4" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="K4" s="11" t="s">
         <v>380</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>381</v>
       </c>
       <c r="L4" s="11">
         <v>0.88239999999999996</v>
@@ -2536,7 +2536,7 @@
         <v>0.87739999999999996</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="15"/>
@@ -2609,30 +2609,30 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="H5" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="I5" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="J5" s="16" t="s">
         <v>367</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>368</v>
       </c>
       <c r="K5" s="11">
         <v>384</v>
@@ -2644,7 +2644,7 @@
         <v>0.83699999999999997</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="15"/>
@@ -2717,30 +2717,30 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="H6" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="I6" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="J6" s="16" t="s">
         <v>367</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>368</v>
       </c>
       <c r="K6" s="11">
         <v>384</v>
@@ -2752,7 +2752,7 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="15"/>
@@ -2825,30 +2825,30 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="H7" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="I7" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="J7" s="16" t="s">
         <v>367</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>368</v>
       </c>
       <c r="K7" s="11">
         <v>384</v>
@@ -2933,32 +2933,32 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>267</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="I8" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="J8" s="16" t="s">
         <v>386</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>387</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>148</v>
@@ -2970,7 +2970,7 @@
         <v>0.72770000000000001</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O8" s="14"/>
       <c r="P8" s="15"/>
@@ -3157,41 +3157,41 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>267</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="I10" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="J10" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="K10" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="M10" s="11" t="s">
         <v>340</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>341</v>
       </c>
       <c r="N10" s="11">
         <v>0.4</v>
@@ -3267,35 +3267,35 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="H11" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="I11" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="J11" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="K11" s="11" t="s">
         <v>394</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>395</v>
       </c>
       <c r="L11" s="11">
         <v>0.64419999999999999</v>
@@ -3304,7 +3304,7 @@
         <v>0.63149999999999995</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O11" s="14"/>
       <c r="P11" s="15"/>
@@ -3380,16 +3380,16 @@
         <v>208</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>446</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>447</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="12" t="s">
@@ -3405,7 +3405,7 @@
         <v>100</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L12" s="11">
         <v>0.88600000000000001</v>
@@ -3414,7 +3414,7 @@
         <v>0.88100000000000001</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="O12" s="14"/>
       <c r="P12" s="15"/>
@@ -3487,41 +3487,41 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>294</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>295</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="H13" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="I13" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="J13" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="K13" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="L13" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="M13" s="17" t="s">
         <v>302</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>303</v>
       </c>
       <c r="N13" s="11">
         <v>154</v>
@@ -3599,41 +3599,41 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>294</v>
-      </c>
       <c r="C14" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="H14" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="I14" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="J14" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="K14" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="K14" s="17" t="s">
-        <v>301</v>
-      </c>
       <c r="L14" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="M14" s="17" t="s">
         <v>305</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>306</v>
       </c>
       <c r="N14" s="11">
         <v>441</v>
@@ -3709,41 +3709,41 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>294</v>
-      </c>
       <c r="C15" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H15" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="I15" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="J15" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="K15" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="K15" s="17" t="s">
-        <v>301</v>
-      </c>
       <c r="L15" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N15" s="11">
         <v>201</v>
@@ -3821,41 +3821,41 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>294</v>
-      </c>
       <c r="C16" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H16" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="I16" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="J16" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="K16" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="K16" s="17" t="s">
-        <v>301</v>
-      </c>
       <c r="L16" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N16" s="11">
         <v>412</v>
@@ -3931,35 +3931,35 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="H17" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="I17" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>400</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>401</v>
       </c>
       <c r="L17" s="11">
         <v>0.81040000000000001</v>
@@ -3968,7 +3968,7 @@
         <v>0.80610000000000004</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O17" s="14"/>
       <c r="P17" s="15"/>
@@ -4054,7 +4054,7 @@
         <v>36</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>38</v>
@@ -4166,7 +4166,7 @@
         <v>48</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>38</v>
@@ -4278,7 +4278,7 @@
         <v>51</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>38</v>
@@ -4390,7 +4390,7 @@
         <v>54</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>38</v>
@@ -4502,7 +4502,7 @@
         <v>57</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>38</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12" t="s">
@@ -4609,14 +4609,14 @@
         <v>45</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="H23" s="23" t="s">
         <v>404</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>405</v>
       </c>
       <c r="I23" s="18" t="s">
         <v>227</v>
@@ -4625,7 +4625,7 @@
         <v>228</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L23" s="11">
         <v>0.34499999999999997</v>
@@ -4634,7 +4634,7 @@
         <v>0.313</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O23" s="14"/>
       <c r="P23" s="15"/>
@@ -4707,26 +4707,26 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>450</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>451</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="H24" s="23" t="s">
         <v>453</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>454</v>
       </c>
       <c r="I24" s="18" t="s">
         <v>227</v>
@@ -4830,7 +4830,7 @@
         <v>59</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>42</v>
@@ -4927,39 +4927,39 @@
     </row>
     <row r="26" spans="1:38" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>267</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="J26" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="K26" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="L26" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="L26" s="17" t="s">
+      <c r="M26" s="17" t="s">
         <v>347</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>348</v>
       </c>
       <c r="N26" s="11">
         <v>45.7</v>
@@ -5048,7 +5048,7 @@
         <v>63</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>42</v>
@@ -5160,7 +5160,7 @@
         <v>66</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>42</v>
@@ -5272,7 +5272,7 @@
         <v>70</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>42</v>
@@ -5384,7 +5384,7 @@
         <v>73</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>42</v>
@@ -5496,7 +5496,7 @@
         <v>76</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>42</v>
@@ -5711,7 +5711,7 @@
         <v>45</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F33" s="25"/>
       <c r="G33" s="12" t="s">
@@ -5915,32 +5915,32 @@
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F35" s="25"/>
       <c r="G35" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H35" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="I35" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="J35" s="19" t="s">
         <v>309</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="J35" s="19" t="s">
-        <v>310</v>
       </c>
       <c r="K35" s="17" t="s">
         <v>33</v>
@@ -6025,7 +6025,7 @@
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>99</v>
@@ -6037,7 +6037,7 @@
         <v>45</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="12" t="s">
@@ -6050,19 +6050,19 @@
         <v>219</v>
       </c>
       <c r="J36" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K36" s="11" t="s">
         <v>234</v>
       </c>
       <c r="L36" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="N36" s="11" t="s">
         <v>410</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="N36" s="11" t="s">
-        <v>411</v>
       </c>
       <c r="O36" s="14"/>
       <c r="P36" s="15"/>
@@ -6135,41 +6135,41 @@
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="H37" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="I37" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="L37" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="I37" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="J37" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="K37" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="L37" s="17" t="s">
+      <c r="M37" s="17" t="s">
         <v>314</v>
-      </c>
-      <c r="M37" s="17" t="s">
-        <v>315</v>
       </c>
       <c r="N37" s="11">
         <v>696</v>
@@ -6260,7 +6260,7 @@
         <v>79</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>42</v>
@@ -6372,7 +6372,7 @@
         <v>82</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>42</v>
@@ -6484,7 +6484,7 @@
         <v>85</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>42</v>
@@ -6596,7 +6596,7 @@
         <v>88</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G41" s="12" t="s">
         <v>42</v>
@@ -6708,7 +6708,7 @@
         <v>91</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G42" s="12" t="s">
         <v>42</v>
@@ -6820,7 +6820,7 @@
         <v>94</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G43" s="12" t="s">
         <v>42</v>
@@ -6917,41 +6917,41 @@
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="H44" s="23" t="s">
         <v>414</v>
-      </c>
-      <c r="H44" s="23" t="s">
-        <v>415</v>
       </c>
       <c r="I44" s="18" t="s">
         <v>219</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K44" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="L44" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="L44" s="17" t="s">
+      <c r="M44" s="17" t="s">
         <v>417</v>
-      </c>
-      <c r="M44" s="17" t="s">
-        <v>418</v>
       </c>
       <c r="N44" s="11">
         <v>20.399999999999999</v>
@@ -7029,44 +7029,44 @@
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F45" s="19"/>
       <c r="G45" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I45" s="18" t="s">
         <v>219</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K45" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="L45" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="L45" s="11" t="s">
-        <v>421</v>
-      </c>
       <c r="M45" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O45" s="14">
         <v>0.75</v>
@@ -7141,35 +7141,35 @@
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="H46" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="H46" s="24" t="s">
-        <v>426</v>
-      </c>
       <c r="I46" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="J46" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="J46" s="16" t="s">
-        <v>394</v>
-      </c>
       <c r="K46" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L46" s="11">
         <v>0.68700000000000006</v>
@@ -7178,7 +7178,7 @@
         <v>0.68200000000000005</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O46" s="14"/>
       <c r="P46" s="15"/>
@@ -7251,35 +7251,35 @@
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F47" s="19"/>
       <c r="G47" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="H47" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="H47" s="24" t="s">
-        <v>426</v>
-      </c>
       <c r="I47" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="J47" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="J47" s="16" t="s">
-        <v>394</v>
-      </c>
       <c r="K47" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L47" s="11">
         <v>0.629</v>
@@ -7288,7 +7288,7 @@
         <v>0.623</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O47" s="14"/>
       <c r="P47" s="15"/>
@@ -7361,41 +7361,41 @@
     </row>
     <row r="48" spans="1:38" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>267</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="H48" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="H48" s="24" t="s">
+      <c r="I48" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="L48" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="I48" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="J48" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="L48" s="17" t="s">
+      <c r="M48" s="17" t="s">
         <v>352</v>
-      </c>
-      <c r="M48" s="17" t="s">
-        <v>353</v>
       </c>
       <c r="N48" s="11">
         <v>10.199999999999999</v>
@@ -7471,26 +7471,26 @@
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="H49" s="23" t="s">
         <v>433</v>
-      </c>
-      <c r="H49" s="23" t="s">
-        <v>434</v>
       </c>
       <c r="I49" s="18" t="s">
         <v>227</v>
@@ -7594,7 +7594,7 @@
         <v>97</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G50" s="12" t="s">
         <v>43</v>
@@ -7713,10 +7713,10 @@
         <v>100</v>
       </c>
       <c r="I51" s="40" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J51" s="40" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K51" s="11" t="s">
         <v>33</v>
@@ -7819,10 +7819,10 @@
         <v>100</v>
       </c>
       <c r="I52" s="40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J52" s="40" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K52" s="11" t="s">
         <v>33</v>
@@ -7919,7 +7919,7 @@
         <v>45</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="12" t="s">
@@ -7929,10 +7929,10 @@
         <v>100</v>
       </c>
       <c r="I53" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="J53" s="40" t="s">
         <v>472</v>
-      </c>
-      <c r="J53" s="40" t="s">
-        <v>473</v>
       </c>
       <c r="K53" s="11" t="s">
         <v>33</v>
@@ -8017,19 +8017,19 @@
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>267</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F54" s="19"/>
       <c r="G54" s="12" t="s">
@@ -8039,19 +8039,19 @@
         <v>100</v>
       </c>
       <c r="I54" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="J54" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="J54" s="16" t="s">
+      <c r="K54" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="K54" s="11" t="s">
-        <v>346</v>
-      </c>
       <c r="L54" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="M54" s="11" t="s">
         <v>355</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>356</v>
       </c>
       <c r="N54" s="11">
         <v>364.88</v>
@@ -8769,30 +8769,30 @@
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A61" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F61" s="19"/>
       <c r="G61" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="H61" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="H61" s="21" t="s">
+      <c r="I61" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="I61" s="18" t="s">
+      <c r="J61" s="16" t="s">
         <v>367</v>
-      </c>
-      <c r="J61" s="16" t="s">
-        <v>368</v>
       </c>
       <c r="K61" s="17">
         <v>128</v>
@@ -8998,7 +8998,7 @@
         <v>106</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G63" s="12" t="s">
         <v>107</v>
@@ -9108,7 +9108,7 @@
         <v>112</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G64" s="12" t="s">
         <v>113</v>
@@ -9218,7 +9218,7 @@
         <v>117</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G65" s="12" t="s">
         <v>118</v>
@@ -9315,41 +9315,41 @@
     </row>
     <row r="66" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F66" s="19"/>
       <c r="G66" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="H66" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="H66" s="23" t="s">
+      <c r="I66" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="I66" s="12" t="s">
+      <c r="J66" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="J66" s="16" t="s">
+      <c r="K66" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="K66" s="17" t="s">
+      <c r="L66" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="L66" s="17" t="s">
+      <c r="M66" s="17" t="s">
         <v>323</v>
-      </c>
-      <c r="M66" s="17" t="s">
-        <v>324</v>
       </c>
       <c r="N66" s="11">
         <v>20.09</v>
@@ -9438,7 +9438,7 @@
         <v>121</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G67" s="12" t="s">
         <v>122</v>
@@ -9548,7 +9548,7 @@
         <v>124</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G68" s="12" t="s">
         <v>29</v>
@@ -9660,7 +9660,7 @@
         <v>125</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G69" s="12" t="s">
         <v>29</v>
@@ -9772,7 +9772,7 @@
         <v>127</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G70" s="12" t="s">
         <v>29</v>
@@ -9882,7 +9882,7 @@
         <v>129</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G71" s="12" t="s">
         <v>37</v>
@@ -9992,7 +9992,7 @@
         <v>130</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G72" s="12" t="s">
         <v>38</v>
@@ -10104,7 +10104,7 @@
         <v>131</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G73" s="12" t="s">
         <v>38</v>
@@ -10216,7 +10216,7 @@
         <v>132</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G74" s="12" t="s">
         <v>38</v>
@@ -10326,7 +10326,7 @@
         <v>133</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G75" s="12" t="s">
         <v>40</v>
@@ -10438,7 +10438,7 @@
         <v>135</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G76" s="12" t="s">
         <v>40</v>
@@ -10550,7 +10550,7 @@
         <v>137</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G77" s="12" t="s">
         <v>40</v>
@@ -10770,7 +10770,7 @@
         <v>138</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G79" s="12" t="s">
         <v>42</v>
@@ -10882,7 +10882,7 @@
         <v>140</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G80" s="12" t="s">
         <v>141</v>
@@ -10992,7 +10992,7 @@
         <v>143</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G81" s="12" t="s">
         <v>144</v>
@@ -11102,7 +11102,7 @@
         <v>145</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G82" s="12" t="s">
         <v>146</v>
@@ -11212,7 +11212,7 @@
         <v>149</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G83" s="12" t="s">
         <v>146</v>
@@ -11322,7 +11322,7 @@
         <v>150</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G84" s="12" t="s">
         <v>146</v>
@@ -11434,7 +11434,7 @@
         <v>151</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G85" s="12" t="s">
         <v>146</v>
@@ -11546,7 +11546,7 @@
         <v>152</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G86" s="12" t="s">
         <v>146</v>
@@ -11656,7 +11656,7 @@
         <v>153</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G87" s="12" t="s">
         <v>154</v>
@@ -11766,7 +11766,7 @@
         <v>155</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G88" s="12" t="s">
         <v>154</v>
@@ -11863,35 +11863,35 @@
     </row>
     <row r="89" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B89" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D89" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F89" s="19"/>
       <c r="G89" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H89" s="23" t="s">
         <v>128</v>
       </c>
       <c r="I89" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="J89" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="J89" s="16" t="s">
-        <v>394</v>
-      </c>
       <c r="K89" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L89" s="17">
         <v>0.62629999999999997</v>
@@ -11973,41 +11973,41 @@
     </row>
     <row r="90" spans="1:38" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B90" s="12" t="s">
         <v>267</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F90" s="19"/>
       <c r="G90" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="H90" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="H90" s="23" t="s">
+      <c r="I90" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="J90" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="L90" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="I90" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="J90" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="K90" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="L90" s="17" t="s">
+      <c r="M90" s="17" t="s">
         <v>360</v>
-      </c>
-      <c r="M90" s="17" t="s">
-        <v>361</v>
       </c>
       <c r="N90" s="11">
         <v>86.95</v>
@@ -12218,7 +12218,7 @@
         <v>270</v>
       </c>
       <c r="J92" s="16" t="s">
-        <v>271</v>
+        <v>485</v>
       </c>
       <c r="K92" s="17" t="s">
         <v>209</v>
@@ -12317,7 +12317,7 @@
         <v>105</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F93" s="19"/>
       <c r="G93" s="12" t="s">
@@ -12330,7 +12330,7 @@
         <v>270</v>
       </c>
       <c r="J93" s="16" t="s">
-        <v>271</v>
+        <v>485</v>
       </c>
       <c r="K93" s="17" t="s">
         <v>209</v>
@@ -12429,7 +12429,7 @@
         <v>105</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F94" s="19"/>
       <c r="G94" s="12" t="s">
@@ -12442,7 +12442,7 @@
         <v>270</v>
       </c>
       <c r="J94" s="16" t="s">
-        <v>271</v>
+        <v>485</v>
       </c>
       <c r="K94" s="17" t="s">
         <v>209</v>
@@ -12541,7 +12541,7 @@
         <v>105</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F95" s="19"/>
       <c r="G95" s="12" t="s">
@@ -12554,7 +12554,7 @@
         <v>270</v>
       </c>
       <c r="J95" s="16" t="s">
-        <v>271</v>
+        <v>485</v>
       </c>
       <c r="K95" s="17" t="s">
         <v>209</v>
@@ -12653,7 +12653,7 @@
         <v>105</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F96" s="19"/>
       <c r="G96" s="12" t="s">
@@ -12666,7 +12666,7 @@
         <v>270</v>
       </c>
       <c r="J96" s="16" t="s">
-        <v>271</v>
+        <v>485</v>
       </c>
       <c r="K96" s="17" t="s">
         <v>209</v>
@@ -12764,7 +12764,7 @@
         <v>156</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G97" s="12" t="s">
         <v>157</v>
@@ -12876,7 +12876,7 @@
         <v>159</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G98" s="12" t="s">
         <v>157</v>
@@ -12988,7 +12988,7 @@
         <v>161</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G99" s="12" t="s">
         <v>42</v>
@@ -13098,7 +13098,7 @@
         <v>162</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G100" s="12" t="s">
         <v>163</v>
@@ -13210,7 +13210,7 @@
         <v>165</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G101" s="12" t="s">
         <v>163</v>
@@ -13322,7 +13322,7 @@
         <v>167</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G102" s="12" t="s">
         <v>42</v>
@@ -13432,7 +13432,7 @@
         <v>168</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G103" s="12" t="s">
         <v>42</v>
@@ -13544,7 +13544,7 @@
         <v>169</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G104" s="12" t="s">
         <v>42</v>
@@ -13656,7 +13656,7 @@
         <v>170</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G105" s="12" t="s">
         <v>42</v>
@@ -13766,7 +13766,7 @@
         <v>171</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G106" s="12" t="s">
         <v>172</v>
@@ -13876,7 +13876,7 @@
         <v>174</v>
       </c>
       <c r="F107" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G107" s="12" t="s">
         <v>172</v>
@@ -13986,7 +13986,7 @@
         <v>175</v>
       </c>
       <c r="F108" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G108" s="12" t="s">
         <v>172</v>
@@ -14093,11 +14093,11 @@
         <v>105</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F109" s="19"/>
       <c r="G109" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H109" s="19" t="s">
         <v>142</v>
@@ -14201,11 +14201,11 @@
         <v>105</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F110" s="19"/>
       <c r="G110" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H110" s="19" t="s">
         <v>142</v>
@@ -14309,11 +14309,11 @@
         <v>105</v>
       </c>
       <c r="E111" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F111" s="19"/>
       <c r="G111" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H111" s="19" t="s">
         <v>142</v>
@@ -14417,11 +14417,11 @@
         <v>105</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F112" s="19"/>
       <c r="G112" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H112" s="19" t="s">
         <v>142</v>
@@ -14525,14 +14525,14 @@
         <v>105</v>
       </c>
       <c r="E113" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F113" s="19"/>
       <c r="G113" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H113" s="23" t="s">
         <v>285</v>
-      </c>
-      <c r="H113" s="23" t="s">
-        <v>286</v>
       </c>
       <c r="I113" s="18" t="s">
         <v>227</v>
@@ -14624,38 +14624,38 @@
     <row r="114" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A114" s="12"/>
       <c r="B114" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D114" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F114" s="19"/>
       <c r="G114" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="H114" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="H114" s="23" t="s">
+      <c r="I114" s="12" t="s">
         <v>328</v>
-      </c>
-      <c r="I114" s="12" t="s">
-        <v>329</v>
       </c>
       <c r="J114" s="16" t="s">
         <v>228</v>
       </c>
       <c r="K114" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="L114" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="L114" s="17" t="s">
+      <c r="M114" s="17" t="s">
         <v>331</v>
-      </c>
-      <c r="M114" s="17" t="s">
-        <v>332</v>
       </c>
       <c r="N114" s="11">
         <v>52.4</v>
@@ -14744,7 +14744,7 @@
         <v>176</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G115" s="12" t="s">
         <v>177</v>
@@ -14856,7 +14856,7 @@
         <v>179</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G116" s="12" t="s">
         <v>177</v>
@@ -14968,7 +14968,7 @@
         <v>180</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G117" s="12" t="s">
         <v>177</v>
@@ -15078,7 +15078,7 @@
         <v>181</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G118" s="12" t="s">
         <v>182</v>
@@ -15190,7 +15190,7 @@
         <v>184</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G119" s="12" t="s">
         <v>182</v>
@@ -15300,7 +15300,7 @@
         <v>186</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G120" s="12" t="s">
         <v>182</v>
@@ -15410,7 +15410,7 @@
         <v>187</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G121" s="12" t="s">
         <v>188</v>
@@ -15517,7 +15517,7 @@
         <v>105</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F122" s="19"/>
       <c r="G122" s="12" t="s">
@@ -15625,11 +15625,11 @@
         <v>105</v>
       </c>
       <c r="E123" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F123" s="19"/>
       <c r="G123" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H123" s="23" t="s">
         <v>237</v>
@@ -15733,11 +15733,11 @@
         <v>105</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F124" s="19"/>
       <c r="G124" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H124" s="23" t="s">
         <v>237</v>
@@ -15749,7 +15749,7 @@
         <v>228</v>
       </c>
       <c r="K124" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L124" s="17">
         <v>0.48699999999999999</v>
@@ -15831,32 +15831,32 @@
     </row>
     <row r="125" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A125" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B125" s="12" t="s">
         <v>267</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D125" s="12" t="s">
         <v>191</v>
       </c>
       <c r="E125" s="19" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F125" s="19"/>
       <c r="G125" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="H125" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="H125" s="23" t="s">
-        <v>436</v>
-      </c>
       <c r="I125" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="J125" s="16" t="s">
         <v>441</v>
-      </c>
-      <c r="J125" s="16" t="s">
-        <v>442</v>
       </c>
       <c r="K125" s="17" t="s">
         <v>148</v>
@@ -15954,7 +15954,7 @@
         <v>192</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G126" s="12" t="s">
         <v>193</v>
@@ -16064,7 +16064,7 @@
         <v>197</v>
       </c>
       <c r="F127" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G127" s="12" t="s">
         <v>198</v>
@@ -16159,35 +16159,35 @@
     </row>
     <row r="128" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A128" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B128" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D128" s="12" t="s">
         <v>191</v>
       </c>
       <c r="E128" s="19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F128" s="19"/>
       <c r="G128" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="H128" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="H128" s="23" t="s">
-        <v>445</v>
-      </c>
       <c r="I128" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="J128" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="J128" s="16" t="s">
-        <v>394</v>
-      </c>
       <c r="K128" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L128" s="17">
         <v>0.52980000000000005</v>
@@ -16282,7 +16282,7 @@
         <v>200</v>
       </c>
       <c r="F129" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G129" s="12" t="s">
         <v>38</v>
@@ -16392,7 +16392,7 @@
         <v>201</v>
       </c>
       <c r="F130" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G130" s="12" t="s">
         <v>146</v>
@@ -16502,7 +16502,7 @@
         <v>202</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G131" s="12" t="s">
         <v>203</v>
@@ -16612,7 +16612,7 @@
         <v>207</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G132" s="12" t="s">
         <v>42</v>
@@ -16719,7 +16719,7 @@
         <v>191</v>
       </c>
       <c r="E133" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F133" s="19"/>
       <c r="G133" s="12" t="s">
@@ -17187,6 +17187,13 @@
     <sortCondition ref="E1"/>
   </sortState>
   <mergeCells count="17">
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AE2:AG2"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="Y1:AB1"/>
@@ -17197,13 +17204,6 @@
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AE2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -17339,55 +17339,55 @@
     <hyperlink ref="J124" r:id="rId130" location="download" xr:uid="{98F8B77F-A789-4778-9497-597C20D90322}"/>
     <hyperlink ref="J34" r:id="rId131" location="download" xr:uid="{E010CA1B-D5AA-40DD-8912-4B79D7512C9E}"/>
     <hyperlink ref="J33" r:id="rId132" location="download" xr:uid="{8AF3AF24-44EF-4D42-92D4-11F09C873E2F}"/>
-    <hyperlink ref="J92" r:id="rId133" xr:uid="{1ACDC396-39ED-4086-9544-4B850A2F1BBD}"/>
-    <hyperlink ref="J113" r:id="rId134" location="download" xr:uid="{04E1EB59-E990-4852-B6D8-B1E325D20668}"/>
-    <hyperlink ref="J109" r:id="rId135" location="download" xr:uid="{470D2417-CCA5-4524-9DFD-5A01C230CB7F}"/>
-    <hyperlink ref="J32" r:id="rId136" location="download" xr:uid="{B25A1430-9E5E-458E-8DB2-C23CEA7EC2D0}"/>
-    <hyperlink ref="J96" r:id="rId137" xr:uid="{5CE4E854-82F0-49EA-82C6-15DE89F73DEB}"/>
-    <hyperlink ref="J93" r:id="rId138" xr:uid="{38518C7C-CF62-45F4-8569-945B706F4526}"/>
-    <hyperlink ref="J94" r:id="rId139" xr:uid="{48DCF005-53A7-4127-8082-1932BDEF4A1F}"/>
-    <hyperlink ref="J95" r:id="rId140" xr:uid="{089DA6AC-8760-49E7-85EE-DADF7230B024}"/>
-    <hyperlink ref="J49" r:id="rId141" location="download" xr:uid="{F3AA4726-5111-4F8D-8168-8329DAF4C6AB}"/>
-    <hyperlink ref="J89" r:id="rId142" xr:uid="{30DEBAFB-22D7-4BEE-AF53-D869497E0461}"/>
-    <hyperlink ref="J128" r:id="rId143" xr:uid="{3302B3CB-1452-4205-9287-E9C5FD623F89}"/>
-    <hyperlink ref="J125" r:id="rId144" xr:uid="{FEBE3D6B-999D-4028-82C9-B41CDC008793}"/>
-    <hyperlink ref="J61" r:id="rId145" xr:uid="{4676C834-9EC2-444B-BBB5-756C0CC38992}"/>
-    <hyperlink ref="J24" r:id="rId146" location="download" xr:uid="{6B07E3C4-CE98-4124-B3D7-80F092A7DFD0}"/>
-    <hyperlink ref="J14" r:id="rId147" xr:uid="{E93AF7D9-8C1B-491C-A7E2-2E0557690D90}"/>
-    <hyperlink ref="J13" r:id="rId148" xr:uid="{96758C3A-AAAE-4A70-8CAA-D8A75CA12A76}"/>
-    <hyperlink ref="J37" r:id="rId149" xr:uid="{DEB6F4D3-C766-47D1-A187-8A54B837D52A}"/>
-    <hyperlink ref="J114" r:id="rId150" location="download" xr:uid="{262642B8-94D6-4669-BE46-A9E31BB48049}"/>
-    <hyperlink ref="J66" r:id="rId151" xr:uid="{B6AD6E49-EEAE-4AFD-AAF6-E9A42DB0CD95}"/>
-    <hyperlink ref="J68" r:id="rId152" xr:uid="{6452CE07-EF66-4E66-AFD6-34088FFEB84F}"/>
-    <hyperlink ref="J69" r:id="rId153" xr:uid="{B33A96F9-BC84-40DD-BC84-721A6B229142}"/>
-    <hyperlink ref="J75" r:id="rId154" xr:uid="{53C583A1-73B7-4014-99BD-4CD33FB3A43E}"/>
-    <hyperlink ref="J76" r:id="rId155" xr:uid="{8D4DCD86-01AB-45EF-A591-8A99C7856B98}"/>
-    <hyperlink ref="J97" r:id="rId156" xr:uid="{F2509109-4478-4079-ABB8-81E698225F96}"/>
-    <hyperlink ref="J98" r:id="rId157" xr:uid="{26844C22-3E2C-43A5-8330-0F3C1BAD910E}"/>
-    <hyperlink ref="J100" r:id="rId158" xr:uid="{A4856C4D-6FA4-4E35-9428-CD6FAD8BC6B5}"/>
-    <hyperlink ref="J101" r:id="rId159" xr:uid="{E471031A-F5AF-48A0-8416-AA7291AEC601}"/>
-    <hyperlink ref="J118" r:id="rId160" xr:uid="{68FB2891-2376-493E-8418-AC870D338921}"/>
-    <hyperlink ref="J119" r:id="rId161" xr:uid="{6AFA1B3A-7854-4BF0-B085-022E67CB38B6}"/>
-    <hyperlink ref="J127" r:id="rId162" xr:uid="{9A511330-ED8A-4561-8A3A-2102EDA2B1D8}"/>
-    <hyperlink ref="J60" r:id="rId163" location="download" xr:uid="{6A039B14-D890-410F-BE1C-F4654019927E}"/>
-    <hyperlink ref="J55" r:id="rId164" location="download" xr:uid="{A4FEAAD1-7C8F-4AC8-8CD3-E345F9FE6F24}"/>
-    <hyperlink ref="J57" r:id="rId165" location="download" xr:uid="{01211158-32A1-43F1-A051-F63162BCF290}"/>
-    <hyperlink ref="J59" r:id="rId166" location="download" xr:uid="{8F6E42FD-3759-46ED-8D73-C637BC1EE292}"/>
-    <hyperlink ref="J56" r:id="rId167" location="download" xr:uid="{D129A9D4-F214-42CB-A8CD-761E70C98F16}"/>
-    <hyperlink ref="J58" r:id="rId168" location="download" xr:uid="{5047179E-4355-4F3F-949B-A9F8F2C04565}"/>
-    <hyperlink ref="J11" r:id="rId169" xr:uid="{A64B009E-1523-43A4-AA97-D8DA8A34B34F}"/>
-    <hyperlink ref="J47" r:id="rId170" xr:uid="{878AE7CD-81D1-4C15-BC09-07BBF815F4AB}"/>
-    <hyperlink ref="J46" r:id="rId171" xr:uid="{5AA1B6C1-8A0A-4A63-94DF-AFD9404F1C56}"/>
-    <hyperlink ref="J45" r:id="rId172" xr:uid="{371FEF95-144A-4A75-B902-41F289BB675F}"/>
-    <hyperlink ref="J17" r:id="rId173" xr:uid="{F59A8A02-0B37-47B2-A293-86F3F3062FFA}"/>
-    <hyperlink ref="J23" r:id="rId174" location="download" xr:uid="{448CAFE4-BAEA-4D6E-8E60-04161ED6D1D0}"/>
-    <hyperlink ref="J5" r:id="rId175" xr:uid="{452F85B5-5373-425E-917B-C463F574A47E}"/>
-    <hyperlink ref="J6" r:id="rId176" xr:uid="{563ADE79-A365-41F9-9C86-19BE08D27236}"/>
-    <hyperlink ref="J7" r:id="rId177" xr:uid="{225B35B1-EF43-490B-89F8-863E8E84D7C3}"/>
-    <hyperlink ref="J15" r:id="rId178" xr:uid="{288B1AC9-7397-46B5-A035-2D388E655A76}"/>
-    <hyperlink ref="J16" r:id="rId179" xr:uid="{84718668-3980-4398-902C-A3E967472703}"/>
-    <hyperlink ref="H15" r:id="rId180" xr:uid="{3D0289BC-86D2-4108-8ADC-ECE52D3E2879}"/>
-    <hyperlink ref="H16" r:id="rId181" xr:uid="{DD6478F5-703E-4CA6-B409-67CB2B7FD163}"/>
+    <hyperlink ref="J113" r:id="rId133" location="download" xr:uid="{04E1EB59-E990-4852-B6D8-B1E325D20668}"/>
+    <hyperlink ref="J109" r:id="rId134" location="download" xr:uid="{470D2417-CCA5-4524-9DFD-5A01C230CB7F}"/>
+    <hyperlink ref="J32" r:id="rId135" location="download" xr:uid="{B25A1430-9E5E-458E-8DB2-C23CEA7EC2D0}"/>
+    <hyperlink ref="J49" r:id="rId136" location="download" xr:uid="{F3AA4726-5111-4F8D-8168-8329DAF4C6AB}"/>
+    <hyperlink ref="J89" r:id="rId137" xr:uid="{30DEBAFB-22D7-4BEE-AF53-D869497E0461}"/>
+    <hyperlink ref="J128" r:id="rId138" xr:uid="{3302B3CB-1452-4205-9287-E9C5FD623F89}"/>
+    <hyperlink ref="J125" r:id="rId139" xr:uid="{FEBE3D6B-999D-4028-82C9-B41CDC008793}"/>
+    <hyperlink ref="J61" r:id="rId140" xr:uid="{4676C834-9EC2-444B-BBB5-756C0CC38992}"/>
+    <hyperlink ref="J24" r:id="rId141" location="download" xr:uid="{6B07E3C4-CE98-4124-B3D7-80F092A7DFD0}"/>
+    <hyperlink ref="J14" r:id="rId142" xr:uid="{E93AF7D9-8C1B-491C-A7E2-2E0557690D90}"/>
+    <hyperlink ref="J13" r:id="rId143" xr:uid="{96758C3A-AAAE-4A70-8CAA-D8A75CA12A76}"/>
+    <hyperlink ref="J37" r:id="rId144" xr:uid="{DEB6F4D3-C766-47D1-A187-8A54B837D52A}"/>
+    <hyperlink ref="J114" r:id="rId145" location="download" xr:uid="{262642B8-94D6-4669-BE46-A9E31BB48049}"/>
+    <hyperlink ref="J66" r:id="rId146" xr:uid="{B6AD6E49-EEAE-4AFD-AAF6-E9A42DB0CD95}"/>
+    <hyperlink ref="J68" r:id="rId147" xr:uid="{6452CE07-EF66-4E66-AFD6-34088FFEB84F}"/>
+    <hyperlink ref="J69" r:id="rId148" xr:uid="{B33A96F9-BC84-40DD-BC84-721A6B229142}"/>
+    <hyperlink ref="J75" r:id="rId149" xr:uid="{53C583A1-73B7-4014-99BD-4CD33FB3A43E}"/>
+    <hyperlink ref="J76" r:id="rId150" xr:uid="{8D4DCD86-01AB-45EF-A591-8A99C7856B98}"/>
+    <hyperlink ref="J97" r:id="rId151" xr:uid="{F2509109-4478-4079-ABB8-81E698225F96}"/>
+    <hyperlink ref="J98" r:id="rId152" xr:uid="{26844C22-3E2C-43A5-8330-0F3C1BAD910E}"/>
+    <hyperlink ref="J100" r:id="rId153" xr:uid="{A4856C4D-6FA4-4E35-9428-CD6FAD8BC6B5}"/>
+    <hyperlink ref="J101" r:id="rId154" xr:uid="{E471031A-F5AF-48A0-8416-AA7291AEC601}"/>
+    <hyperlink ref="J118" r:id="rId155" xr:uid="{68FB2891-2376-493E-8418-AC870D338921}"/>
+    <hyperlink ref="J119" r:id="rId156" xr:uid="{6AFA1B3A-7854-4BF0-B085-022E67CB38B6}"/>
+    <hyperlink ref="J127" r:id="rId157" xr:uid="{9A511330-ED8A-4561-8A3A-2102EDA2B1D8}"/>
+    <hyperlink ref="J60" r:id="rId158" location="download" xr:uid="{6A039B14-D890-410F-BE1C-F4654019927E}"/>
+    <hyperlink ref="J55" r:id="rId159" location="download" xr:uid="{A4FEAAD1-7C8F-4AC8-8CD3-E345F9FE6F24}"/>
+    <hyperlink ref="J57" r:id="rId160" location="download" xr:uid="{01211158-32A1-43F1-A051-F63162BCF290}"/>
+    <hyperlink ref="J59" r:id="rId161" location="download" xr:uid="{8F6E42FD-3759-46ED-8D73-C637BC1EE292}"/>
+    <hyperlink ref="J56" r:id="rId162" location="download" xr:uid="{D129A9D4-F214-42CB-A8CD-761E70C98F16}"/>
+    <hyperlink ref="J58" r:id="rId163" location="download" xr:uid="{5047179E-4355-4F3F-949B-A9F8F2C04565}"/>
+    <hyperlink ref="J11" r:id="rId164" xr:uid="{A64B009E-1523-43A4-AA97-D8DA8A34B34F}"/>
+    <hyperlink ref="J47" r:id="rId165" xr:uid="{878AE7CD-81D1-4C15-BC09-07BBF815F4AB}"/>
+    <hyperlink ref="J46" r:id="rId166" xr:uid="{5AA1B6C1-8A0A-4A63-94DF-AFD9404F1C56}"/>
+    <hyperlink ref="J45" r:id="rId167" xr:uid="{371FEF95-144A-4A75-B902-41F289BB675F}"/>
+    <hyperlink ref="J17" r:id="rId168" xr:uid="{F59A8A02-0B37-47B2-A293-86F3F3062FFA}"/>
+    <hyperlink ref="J23" r:id="rId169" location="download" xr:uid="{448CAFE4-BAEA-4D6E-8E60-04161ED6D1D0}"/>
+    <hyperlink ref="J5" r:id="rId170" xr:uid="{452F85B5-5373-425E-917B-C463F574A47E}"/>
+    <hyperlink ref="J6" r:id="rId171" xr:uid="{563ADE79-A365-41F9-9C86-19BE08D27236}"/>
+    <hyperlink ref="J7" r:id="rId172" xr:uid="{225B35B1-EF43-490B-89F8-863E8E84D7C3}"/>
+    <hyperlink ref="J15" r:id="rId173" xr:uid="{288B1AC9-7397-46B5-A035-2D388E655A76}"/>
+    <hyperlink ref="J16" r:id="rId174" xr:uid="{84718668-3980-4398-902C-A3E967472703}"/>
+    <hyperlink ref="H15" r:id="rId175" xr:uid="{3D0289BC-86D2-4108-8ADC-ECE52D3E2879}"/>
+    <hyperlink ref="H16" r:id="rId176" xr:uid="{DD6478F5-703E-4CA6-B409-67CB2B7FD163}"/>
+    <hyperlink ref="J96" r:id="rId177" location="files" xr:uid="{5CE4E854-82F0-49EA-82C6-15DE89F73DEB}"/>
+    <hyperlink ref="J95" r:id="rId178" location="files" xr:uid="{089DA6AC-8760-49E7-85EE-DADF7230B024}"/>
+    <hyperlink ref="J94" r:id="rId179" location="files" xr:uid="{48DCF005-53A7-4127-8082-1932BDEF4A1F}"/>
+    <hyperlink ref="J93" r:id="rId180" location="files" xr:uid="{38518C7C-CF62-45F4-8569-945B706F4526}"/>
+    <hyperlink ref="J92" r:id="rId181" location="files" xr:uid="{1ACDC396-39ED-4086-9544-4B850A2F1BBD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" fitToHeight="0" orientation="landscape" r:id="rId182"/>
@@ -17403,18 +17403,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17647,14 +17647,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{454B4A55-1C62-49DF-B7EA-FD56AEB4B42C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7132B4B-6BDC-47A9-AF0C-0341A70E6725}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -17667,6 +17659,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="e1d46fbb-7d1a-4672-bfd6-63f33723acfe"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{454B4A55-1C62-49DF-B7EA-FD56AEB4B42C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
